--- a/Correlation/Metric 1, 2 and 3/maven-doxia/Metric 1,2&3_Doxia.xlsx
+++ b/Correlation/Metric 1, 2 and 3/maven-doxia/Metric 1,2&3_Doxia.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Maven Doxia 1&amp;3" sheetId="2" r:id="rId1"/>
     <sheet name="Maven Doxia 2&amp;3" sheetId="1" r:id="rId2"/>
+    <sheet name="Spearman" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -634,6 +635,99 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>365772</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>7629</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="5852172" cy="4389129"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>603897</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>74304</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6334125" y="66675"/>
+          <a:ext cx="5852172" cy="4389129"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -901,7 +995,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -15209,4 +15303,19 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Correlation/Metric 1, 2 and 3/maven-doxia/Metric 1,2&3_Doxia.xlsx
+++ b/Correlation/Metric 1, 2 and 3/maven-doxia/Metric 1,2&3_Doxia.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Maven Doxia 1&amp;3" sheetId="2" r:id="rId1"/>
@@ -612,13 +612,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -995,13 +998,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q132"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="33.42578125" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="29.7109375" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" customWidth="1"/>
     <col min="4" max="5" width="0" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="11.140625" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="11.28515625" hidden="1" customWidth="1"/>
@@ -8154,11 +8159,13 @@
   <dimension ref="A1:Q132"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="24.5703125" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="36.42578125" customWidth="1"/>
     <col min="3" max="3" width="28.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="7" width="0" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="12.5703125" hidden="1" customWidth="1"/>
@@ -8167,62 +8174,62 @@
     <col min="11" max="11" width="22" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="16.7109375" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="18.42578125" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="15.85546875" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="20" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="3.42578125" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="16.5703125" style="2" customWidth="1"/>
     <col min="16" max="16" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
+    <row r="1" spans="1:17" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="3" t="s">
         <v>16</v>
       </c>
     </row>
@@ -15309,7 +15316,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
